--- a/data dan database/DATA NIK GURU DAN KARYAWAN LENGKAP UPDATE 18 OKTOBER 2022.xlsx
+++ b/data dan database/DATA NIK GURU DAN KARYAWAN LENGKAP UPDATE 18 OKTOBER 2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPL-05\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-voting-master\data dan database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AEA830-9688-477B-9DA4-09B4EE8B6204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DA5C28-BC52-4176-98E9-85C7DC3810EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="3220" windowWidth="14400" windowHeight="7270" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identitas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="174">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -485,6 +485,66 @@
   </si>
   <si>
     <t>TOTAL GURU DAN KARYAWAN: 75 orang</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>staff yayasan</t>
+  </si>
+  <si>
+    <t>staffyayasanbn</t>
+  </si>
+  <si>
+    <t>pendidik</t>
+  </si>
+  <si>
+    <t>gurubn</t>
+  </si>
+  <si>
+    <t>tenaga pendidik</t>
+  </si>
+  <si>
+    <t>tenagapendidikbn</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>kebersihan</t>
+  </si>
+  <si>
+    <t>umumkebersihanbn</t>
+  </si>
+  <si>
+    <t>satpam</t>
+  </si>
+  <si>
+    <t>satpambn</t>
+  </si>
+  <si>
+    <t>pamong</t>
+  </si>
+  <si>
+    <t>pamongputraputri</t>
+  </si>
+  <si>
+    <t>dapur</t>
+  </si>
+  <si>
+    <t>dapurbn</t>
+  </si>
+  <si>
+    <t>unit bisnis</t>
+  </si>
+  <si>
+    <t>unitbisnisbn</t>
   </si>
 </sst>
 </file>
@@ -556,7 +616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,8 +647,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -611,6 +677,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -618,7 +693,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -703,6 +778,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1045,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,10 +1147,12 @@
     <col min="2" max="2" width="56.26953125" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.7265625" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="7"/>
+    <col min="5" max="5" width="18.08984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
@@ -1074,15 +1166,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>138</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1095,8 +1193,14 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E3" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1109,8 +1213,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="30"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1123,22 +1229,30 @@
       <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="30"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E7" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1151,8 +1265,14 @@
       <c r="D8" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1165,8 +1285,10 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="30"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1179,8 +1301,10 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E10" s="30"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1194,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -1208,7 +1332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1222,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -1236,7 +1360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -1250,7 +1374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>9</v>
       </c>
@@ -1488,7 +1612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>26</v>
       </c>
@@ -1502,7 +1626,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>27</v>
       </c>
@@ -1516,21 +1640,27 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
         <v>117</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E36" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -1543,8 +1673,14 @@
       <c r="D37" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E37" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -1557,8 +1693,10 @@
       <c r="D38" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>3</v>
       </c>
@@ -1571,8 +1709,10 @@
       <c r="D39" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>4</v>
       </c>
@@ -1586,7 +1726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -1600,7 +1740,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>6</v>
       </c>
@@ -1614,7 +1754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>7</v>
       </c>
@@ -1628,7 +1768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>8</v>
       </c>
@@ -1642,7 +1782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>9</v>
       </c>
@@ -1656,21 +1796,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="11"/>
       <c r="C46" s="6"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="14"/>
       <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E47" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -1683,8 +1829,14 @@
       <c r="D48" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E48" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>2</v>
       </c>
@@ -1697,8 +1849,10 @@
       <c r="D49" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E49" s="31"/>
+      <c r="F49" s="32"/>
+    </row>
+    <row r="50" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>3</v>
       </c>
@@ -1711,8 +1865,10 @@
       <c r="D50" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>4</v>
       </c>
@@ -1725,8 +1881,10 @@
       <c r="D51" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>5</v>
       </c>
@@ -1739,8 +1897,10 @@
       <c r="D52" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E52" s="31"/>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>6</v>
       </c>
@@ -1754,7 +1914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>7</v>
       </c>
@@ -1768,7 +1928,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>8</v>
       </c>
@@ -1782,15 +1942,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="14"/>
       <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E56" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -1803,8 +1969,14 @@
       <c r="D57" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E57" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>2</v>
       </c>
@@ -1817,8 +1989,10 @@
       <c r="D58" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E58" s="31"/>
+      <c r="F58" s="32"/>
+    </row>
+    <row r="59" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>3</v>
       </c>
@@ -1831,8 +2005,10 @@
       <c r="D59" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+    </row>
+    <row r="60" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>4</v>
       </c>
@@ -1845,8 +2021,10 @@
       <c r="D60" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E60" s="31"/>
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>5</v>
       </c>
@@ -1860,7 +2038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>6</v>
       </c>
@@ -1874,7 +2052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>7</v>
       </c>
@@ -1888,7 +2066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>8</v>
       </c>
@@ -1902,7 +2080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>9</v>
       </c>
@@ -1916,7 +2094,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>10</v>
       </c>
@@ -1930,7 +2108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>11</v>
       </c>
@@ -1944,21 +2122,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
     </row>
-    <row r="69" spans="1:4" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="27" t="s">
         <v>132</v>
       </c>
       <c r="B69" s="27"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E69" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -1971,8 +2155,14 @@
       <c r="D70" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E70" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>2</v>
       </c>
@@ -1985,8 +2175,10 @@
       <c r="D71" s="11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E71" s="31"/>
+      <c r="F71" s="32"/>
+    </row>
+    <row r="72" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>3</v>
       </c>
@@ -1999,8 +2191,10 @@
       <c r="D72" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E72" s="31"/>
+      <c r="F72" s="32"/>
+    </row>
+    <row r="73" spans="1:6" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
         <v>4</v>
       </c>
@@ -2012,7 +2206,7 @@
       </c>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="1:4" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
         <v>5</v>
       </c>
@@ -2024,7 +2218,7 @@
       </c>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="1:4" s="23" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" s="23" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
         <v>6</v>
       </c>
@@ -2036,7 +2230,7 @@
       </c>
       <c r="D75" s="22"/>
     </row>
-    <row r="76" spans="1:4" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
         <v>7</v>
       </c>
@@ -2048,21 +2242,27 @@
       </c>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="18"/>
       <c r="C77" s="5"/>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" spans="1:4" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B78" s="27"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E78" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>1</v>
       </c>
@@ -2075,8 +2275,14 @@
       <c r="D79" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E79" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>2</v>
       </c>
@@ -2089,8 +2295,10 @@
       <c r="D80" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E80" s="31"/>
+      <c r="F80" s="32"/>
+    </row>
+    <row r="81" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>3</v>
       </c>
@@ -2103,8 +2311,10 @@
       <c r="D81" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E81" s="31"/>
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>4</v>
       </c>
@@ -2118,7 +2328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>5</v>
       </c>
@@ -2132,7 +2342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>6</v>
       </c>
@@ -2146,21 +2356,27 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="5"/>
       <c r="B85" s="11"/>
       <c r="C85" s="5"/>
       <c r="D85" s="11"/>
     </row>
-    <row r="86" spans="1:4" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
         <v>135</v>
       </c>
       <c r="B86" s="27"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E86" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>1</v>
       </c>
@@ -2173,8 +2389,14 @@
       <c r="D87" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E87" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>2</v>
       </c>
@@ -2187,8 +2409,10 @@
       <c r="D88" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E88" s="31"/>
+      <c r="F88" s="32"/>
+    </row>
+    <row r="89" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>3</v>
       </c>
@@ -2201,8 +2425,10 @@
       <c r="D89" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E89" s="31"/>
+      <c r="F89" s="32"/>
+    </row>
+    <row r="90" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>4</v>
       </c>
@@ -2216,13 +2442,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="11"/>
       <c r="C91" s="6"/>
       <c r="D91" s="11"/>
     </row>
-    <row r="92" spans="1:4" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="13"/>
       <c r="B92" s="26" t="s">
         <v>153</v>
@@ -2231,7 +2457,23 @@
       <c r="D92" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="24">
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A56:B56"/>
